--- a/CHILE/Agricultura/Emisiones CH4 Agricultura Chile 1990-2016.xlsx
+++ b/CHILE/Agricultura/Emisiones CH4 Agricultura Chile 1990-2016.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATAICC\CHILE\Agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74A9B27-5365-4571-A9D8-75E553139062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A83BA9A-D94D-42BC-9F5C-848E722A8D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
   <si>
     <t>Emisiones por Tipo de emisión</t>
   </si>
@@ -60,12 +61,33 @@
   <si>
     <t>Año</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Emisiones (kton CH4)</t>
+  </si>
+  <si>
+    <t>Emisiones (kton CO2eq)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +237,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +424,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -557,7 +591,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,11 +599,15 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,7 +655,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="31">
     <dxf>
       <font>
         <b/>
@@ -655,7 +693,307 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -897,6 +1235,45 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -911,21 +1288,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CH4_Agricultura_Chile" displayName="CH4_Agricultura_Chile" ref="A2:L29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A2:L29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CH4_Agricultura_Chile" displayName="CH4_Agricultura_Chile" ref="A2:L29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A2:L29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Año" dataDxfId="13"/>
-    <tableColumn id="2" name="3.A - Fermentación entérica" dataDxfId="12"/>
-    <tableColumn id="3" name="3.B - Gestión del estiércol" dataDxfId="11"/>
-    <tableColumn id="4" name="3.C - Cultivo del arroz" dataDxfId="10"/>
-    <tableColumn id="5" name="3.D - Suelos agrícolas" dataDxfId="9"/>
-    <tableColumn id="6" name="3.E - Quema prescrita de sabanas" dataDxfId="8"/>
-    <tableColumn id="7" name="3.F - Quema de residuos agrícola en el campo" dataDxfId="7"/>
-    <tableColumn id="8" name="3.G - Encalado" dataDxfId="6"/>
-    <tableColumn id="9" name="3.H - Aplicación de urea" dataDxfId="5"/>
-    <tableColumn id="10" name="3.I - Otros fertilizantes que contienen carbono" dataDxfId="4"/>
-    <tableColumn id="11" name="3.J - Otros" dataDxfId="3"/>
-    <tableColumn id="12" name="3 - Agricultura" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="3.A - Fermentación entérica" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="3.B - Gestión del estiércol" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3.C - Cultivo del arroz" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="3.D - Suelos agrícolas" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="3.E - Quema prescrita de sabanas" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="3.F - Quema de residuos agrícola en el campo" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="3.G - Encalado" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="3.H - Aplicación de urea" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="3.I - Otros fertilizantes que contienen carbono" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="3.J - Otros" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="3 - Agricultura" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{26EE8692-14F4-4147-880C-A7C7D7046398}" name="CH4_Agricultura_Chile3" displayName="CH4_Agricultura_Chile3" ref="A2:O56" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:O56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{9DB7E131-B238-4B63-A460-0737A112B5CE}" name="Año" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{5134051A-AC8F-40F9-AA41-A67A3470425F}" name="Sector" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{D9A7E7FE-FD83-4C1C-8CE9-15500AA00804}" name="Proceso" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C7876189-19B8-4537-A5F1-35458AF1D8FD}" name="Gas" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{16E5B5C6-A691-4C39-A384-E6CDA062423E}" name="Emisiones (kton CH4)" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{B4B99529-6663-4ABF-9EE9-931C2A936ACF}" name="Emisiones (kton CO2eq)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{81D3779F-ED8D-41CF-8CA8-8E4539D7FA74}" name="3.C - Cultivo del arroz" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{BF1E4F70-0470-4E1F-B03D-471DD5C154E0}" name="3.D - Suelos agrícolas" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{1033F16B-216E-4554-9E60-98EED0C50E20}" name="3.E - Quema prescrita de sabanas" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{0486F489-C4F2-48D2-A3DC-71B0218381A8}" name="3.F - Quema de residuos agrícola en el campo" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{67C62C5A-94AD-4EF1-B4E4-B28C05CC6D6B}" name="3.G - Encalado" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{560CE1C4-F0C2-41A5-81F7-10C57555DE04}" name="3.H - Aplicación de urea" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{2CAED701-062C-41C8-B2B4-8C9D891E4E53}" name="3.I - Otros fertilizantes que contienen carbono" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{6936D843-9DDE-4C36-871F-ACABFA5074ED}" name="3.J - Otros" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{4A75532E-4316-4C8C-B0EC-A5AB2AC43D7D}" name="3 - Agricultura" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,46 +1628,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1304,8 +1705,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1990</v>
       </c>
       <c r="B3" s="2">
@@ -1342,8 +1743,8 @@
         <v>284.0171398</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>1991</v>
       </c>
       <c r="B4" s="2">
@@ -1380,8 +1781,8 @@
         <v>287.11943689999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>1992</v>
       </c>
       <c r="B5" s="2">
@@ -1418,8 +1819,8 @@
         <v>295.02486900000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>1993</v>
       </c>
       <c r="B6" s="2">
@@ -1456,8 +1857,8 @@
         <v>304.34894750000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>1994</v>
       </c>
       <c r="B7" s="2">
@@ -1494,8 +1895,8 @@
         <v>314.7679852</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>1995</v>
       </c>
       <c r="B8" s="2">
@@ -1532,8 +1933,8 @@
         <v>320.5560792</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>1996</v>
       </c>
       <c r="B9" s="2">
@@ -1570,8 +1971,8 @@
         <v>322.893237</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>1997</v>
       </c>
       <c r="B10" s="2">
@@ -1608,8 +2009,8 @@
         <v>338.52818079999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>1998</v>
       </c>
       <c r="B11" s="2">
@@ -1646,8 +2047,8 @@
         <v>336.48648300000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>1999</v>
       </c>
       <c r="B12" s="2">
@@ -1684,8 +2085,8 @@
         <v>333.33398199999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>2000</v>
       </c>
       <c r="B13" s="2">
@@ -1722,8 +2123,8 @@
         <v>332.3534434</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>2001</v>
       </c>
       <c r="B14" s="2">
@@ -1760,8 +2161,8 @@
         <v>323.3759589</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>2002</v>
       </c>
       <c r="B15" s="2">
@@ -1798,8 +2199,8 @@
         <v>322.5217245</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>2003</v>
       </c>
       <c r="B16" s="2">
@@ -1836,8 +2237,8 @@
         <v>318.52107230000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>2004</v>
       </c>
       <c r="B17" s="2">
@@ -1874,8 +2275,8 @@
         <v>322.13517730000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>2005</v>
       </c>
       <c r="B18" s="2">
@@ -1912,8 +2313,8 @@
         <v>323.75195150000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>2006</v>
       </c>
       <c r="B19" s="2">
@@ -1950,8 +2351,8 @@
         <v>326.20438960000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>2007</v>
       </c>
       <c r="B20" s="2">
@@ -1988,8 +2389,8 @@
         <v>325.92189430000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>2008</v>
       </c>
       <c r="B21" s="2">
@@ -2026,8 +2427,8 @@
         <v>313.5969316</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>2009</v>
       </c>
       <c r="B22" s="2">
@@ -2064,8 +2465,8 @@
         <v>299.90997640000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>2010</v>
       </c>
       <c r="B23" s="2">
@@ -2102,8 +2503,8 @@
         <v>289.85902049999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>2011</v>
       </c>
       <c r="B24" s="2">
@@ -2140,8 +2541,8 @@
         <v>280.25508280000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>2012</v>
       </c>
       <c r="B25" s="2">
@@ -2178,8 +2579,8 @@
         <v>291.35017549999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>2013</v>
       </c>
       <c r="B26" s="2">
@@ -2216,8 +2617,8 @@
         <v>291.94883229999999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>2014</v>
       </c>
       <c r="B27" s="2">
@@ -2254,8 +2655,8 @@
         <v>278.95255100000003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>2015</v>
       </c>
       <c r="B28" s="2">
@@ -2292,8 +2693,8 @@
         <v>270.8206725</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>2016</v>
       </c>
       <c r="B29" s="2">
@@ -2340,4 +2741,2058 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9580AB30-9B6B-41AA-8F2C-047A57BE1050}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:O56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>219.54959930000001</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>6.5668850000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.5488267999999996</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>284.0171398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>221.43015869999999</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>5.9946250000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.2799117999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>287.11943689999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>226.89692059999999</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>6.3996399999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.0877534000000004</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>295.02486900000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>234.77818790000001</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>5.8596199999999996</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.7077198</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>304.34894750000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>242.21451200000001</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>6.11754</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.4327120999999998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>314.7679852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>245.61781149999999</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>6.8368950000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.3736386999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>320.5560792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>245.78133159999999</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>6.4540449999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3.0817393000000002</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>322.893237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>256.53864750000002</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>5.1910027000000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.1864675</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>338.52818079999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>254.57677279999999</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>5.3804530000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.1164743000000001</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>336.48648300000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>252.21831449999999</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2.9612440000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.5212994000000002</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>333.33398199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>249.80261519999999</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>5.1922519999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.5998698999999998</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>332.3534434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>249.53128380000001</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>5.7528249999999996</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.7012130000000001</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>323.3759589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>247.3887512</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>5.6379700000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.6209663000000001</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>322.5217245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>244.76677979999999</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>5.688345</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.5789493999999999</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>318.52107230000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>243.36327879999999</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>5.0173500000000004</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.4968995</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>322.13517730000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <v>241.8287393</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>5.0435449999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.2362962999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>323.75195150000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>240.6797718</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>5.6379700000000001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.9911418000000001</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>326.20438960000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2">
+        <v>238.8738061</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>4.3857280999999997</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.4303273000000001</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>325.92189430000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>229.61545620000001</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>4.2234400000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.509471</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>313.5969316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2">
+        <v>218.6590826</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>4.7715199999999998</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.4276603000000001</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>299.90997640000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
+        <v>210.01662970000001</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>4.9421904999999997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.4760956000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>289.85902049999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2">
+        <v>200.51033860000001</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>5.0618815000000001</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.5492357999999999</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>280.25508280000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2">
+        <v>206.57436419999999</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>4.8341865000000004</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.3549028999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>291.35017549999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>211.6848541</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>4.2314999999999996</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.4342113000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>291.94883229999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2">
+        <v>202.5623397</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>4.5131969999999999</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.4055248</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>278.95255100000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>193.33985010000001</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>4.7783709999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1.5447434</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>270.8206725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>187.2807368</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>5.34781</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.0648981</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>263.58165400000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>53.351828699999999</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>55.414741399999997</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2">
+        <v>57.640554999999999</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2">
+        <v>60.003419800000003</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2">
+        <v>63.003221099999998</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2">
+        <v>64.727733999999998</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2">
+        <v>67.576121099999995</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2">
+        <v>73.6120631</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2">
+        <v>73.412782899999996</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2">
+        <v>75.633124100000003</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2">
+        <v>74.7587063</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <v>65.390637100000006</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2">
+        <v>66.874037000000001</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2">
+        <v>65.486998099999994</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2">
+        <v>71.257649000000001</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2">
+        <v>74.643370899999994</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2">
+        <v>77.895505999999997</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2">
+        <v>81.232032799999999</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2">
+        <v>78.248564400000006</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="2">
+        <v>75.051713500000005</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2">
+        <v>73.424104700000001</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>73.133626899999996</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="2">
+        <v>78.586721900000001</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="2">
+        <v>74.598266899999999</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="2">
+        <v>70.471489500000004</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="2">
+        <v>71.157708</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="2">
+        <v>69.888209099999997</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CHILE/Agricultura/Emisiones CH4 Agricultura Chile 1990-2016.xlsx
+++ b/CHILE/Agricultura/Emisiones CH4 Agricultura Chile 1990-2016.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\Agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A83BA9A-D94D-42BC-9F5C-848E722A8D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0EB76D-3525-4064-8298-967C068C949D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="20">
   <si>
     <t>Emisiones por Tipo de emisión</t>
   </si>
@@ -603,13 +603,13 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -655,87 +655,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -778,7 +698,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -793,12 +713,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -813,12 +733,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -833,108 +753,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1288,45 +1108,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CH4_Agricultura_Chile" displayName="CH4_Agricultura_Chile" ref="A2:L29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CH4_Agricultura_Chile" displayName="CH4_Agricultura_Chile" ref="A2:L29" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:L29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="3.A - Fermentación entérica" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="3.B - Gestión del estiércol" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3.C - Cultivo del arroz" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="3.D - Suelos agrícolas" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="3.E - Quema prescrita de sabanas" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="3.F - Quema de residuos agrícola en el campo" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="3.G - Encalado" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="3.H - Aplicación de urea" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="3.I - Otros fertilizantes que contienen carbono" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="3.J - Otros" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="3 - Agricultura" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="3.A - Fermentación entérica" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="3.B - Gestión del estiércol" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3.C - Cultivo del arroz" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="3.D - Suelos agrícolas" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="3.E - Quema prescrita de sabanas" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="3.F - Quema de residuos agrícola en el campo" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="3.G - Encalado" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="3.H - Aplicación de urea" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="3.I - Otros fertilizantes que contienen carbono" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="3.J - Otros" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="3 - Agricultura" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{26EE8692-14F4-4147-880C-A7C7D7046398}" name="CH4_Agricultura_Chile3" displayName="CH4_Agricultura_Chile3" ref="A2:O56" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:O56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{9DB7E131-B238-4B63-A460-0737A112B5CE}" name="Año" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{5134051A-AC8F-40F9-AA41-A67A3470425F}" name="Sector" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{26EE8692-14F4-4147-880C-A7C7D7046398}" name="CH4_Agricultura_Chile3" displayName="CH4_Agricultura_Chile3" ref="A2:F299" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9DB7E131-B238-4B63-A460-0737A112B5CE}" name="Año" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{5134051A-AC8F-40F9-AA41-A67A3470425F}" name="Sector" dataDxfId="4"/>
     <tableColumn id="13" xr3:uid="{D9A7E7FE-FD83-4C1C-8CE9-15500AA00804}" name="Proceso" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{C7876189-19B8-4537-A5F1-35458AF1D8FD}" name="Gas" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{16E5B5C6-A691-4C39-A384-E6CDA062423E}" name="Emisiones (kton CH4)" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{B4B99529-6663-4ABF-9EE9-931C2A936ACF}" name="Emisiones (kton CO2eq)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{81D3779F-ED8D-41CF-8CA8-8E4539D7FA74}" name="3.C - Cultivo del arroz" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{BF1E4F70-0470-4E1F-B03D-471DD5C154E0}" name="3.D - Suelos agrícolas" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{1033F16B-216E-4554-9E60-98EED0C50E20}" name="3.E - Quema prescrita de sabanas" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{0486F489-C4F2-48D2-A3DC-71B0218381A8}" name="3.F - Quema de residuos agrícola en el campo" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{67C62C5A-94AD-4EF1-B4E4-B28C05CC6D6B}" name="3.G - Encalado" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{560CE1C4-F0C2-41A5-81F7-10C57555DE04}" name="3.H - Aplicación de urea" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{2CAED701-062C-41C8-B2B4-8C9D891E4E53}" name="3.I - Otros fertilizantes que contienen carbono" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{6936D843-9DDE-4C36-871F-ACABFA5074ED}" name="3.J - Otros" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{4A75532E-4316-4C8C-B0EC-A5AB2AC43D7D}" name="3 - Agricultura" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{C7876189-19B8-4537-A5F1-35458AF1D8FD}" name="Gas" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{16E5B5C6-A691-4C39-A384-E6CDA062423E}" name="Emisiones (kton CH4)" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{B4B99529-6663-4ABF-9EE9-931C2A936ACF}" name="Emisiones (kton CO2eq)" dataDxfId="0">
+      <calculatedColumnFormula>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1635,39 +1448,39 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1990</v>
       </c>
@@ -1743,7 +1556,7 @@
         <v>284.0171398</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1991</v>
       </c>
@@ -1781,7 +1594,7 @@
         <v>287.11943689999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1992</v>
       </c>
@@ -1819,7 +1632,7 @@
         <v>295.02486900000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1993</v>
       </c>
@@ -1857,7 +1670,7 @@
         <v>304.34894750000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1994</v>
       </c>
@@ -1895,7 +1708,7 @@
         <v>314.7679852</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1995</v>
       </c>
@@ -1933,7 +1746,7 @@
         <v>320.5560792</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1996</v>
       </c>
@@ -1971,7 +1784,7 @@
         <v>322.893237</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1997</v>
       </c>
@@ -2009,7 +1822,7 @@
         <v>338.52818079999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1998</v>
       </c>
@@ -2047,7 +1860,7 @@
         <v>336.48648300000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1999</v>
       </c>
@@ -2085,7 +1898,7 @@
         <v>333.33398199999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2000</v>
       </c>
@@ -2123,7 +1936,7 @@
         <v>332.3534434</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2001</v>
       </c>
@@ -2161,7 +1974,7 @@
         <v>323.3759589</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2002</v>
       </c>
@@ -2199,7 +2012,7 @@
         <v>322.5217245</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2003</v>
       </c>
@@ -2237,7 +2050,7 @@
         <v>318.52107230000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2004</v>
       </c>
@@ -2275,7 +2088,7 @@
         <v>322.13517730000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2005</v>
       </c>
@@ -2313,7 +2126,7 @@
         <v>323.75195150000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2006</v>
       </c>
@@ -2351,7 +2164,7 @@
         <v>326.20438960000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2007</v>
       </c>
@@ -2389,7 +2202,7 @@
         <v>325.92189430000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2008</v>
       </c>
@@ -2427,7 +2240,7 @@
         <v>313.5969316</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2009</v>
       </c>
@@ -2465,7 +2278,7 @@
         <v>299.90997640000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2010</v>
       </c>
@@ -2503,7 +2316,7 @@
         <v>289.85902049999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2011</v>
       </c>
@@ -2541,7 +2354,7 @@
         <v>280.25508280000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2012</v>
       </c>
@@ -2579,7 +2392,7 @@
         <v>291.35017549999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2013</v>
       </c>
@@ -2617,7 +2430,7 @@
         <v>291.94883229999999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2014</v>
       </c>
@@ -2655,7 +2468,7 @@
         <v>278.95255100000003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2015</v>
       </c>
@@ -2693,7 +2506,7 @@
         <v>270.8206725</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
@@ -2748,99 +2561,54 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="39" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="3"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1990</v>
       </c>
@@ -2856,36 +2624,12 @@
       <c r="E3" s="2">
         <v>219.54959930000001</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>6.5668850000000001</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4.5488267999999996</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>284.0171398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5488.7399825000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1991</v>
       </c>
@@ -2901,36 +2645,12 @@
       <c r="E4" s="2">
         <v>221.43015869999999</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>5.9946250000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4.2799117999999998</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>287.11943689999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5535.7539674999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1992</v>
       </c>
@@ -2946,36 +2666,12 @@
       <c r="E5" s="2">
         <v>226.89692059999999</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>6.3996399999999998</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>4.0877534000000004</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>295.02486900000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5672.4230149999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1993</v>
       </c>
@@ -2991,36 +2687,12 @@
       <c r="E6" s="2">
         <v>234.77818790000001</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>5.8596199999999996</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3.7077198</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>304.34894750000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5869.4546975000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1994</v>
       </c>
@@ -3036,36 +2708,12 @@
       <c r="E7" s="2">
         <v>242.21451200000001</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>6.11754</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.4327120999999998</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>314.7679852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6055.3628000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1995</v>
       </c>
@@ -3081,36 +2729,12 @@
       <c r="E8" s="2">
         <v>245.61781149999999</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>6.8368950000000002</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3.3736386999999999</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>320.5560792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6140.4452874999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1996</v>
       </c>
@@ -3126,36 +2750,12 @@
       <c r="E9" s="2">
         <v>245.78133159999999</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>6.4540449999999998</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3.0817393000000002</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>322.893237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6144.5332899999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1997</v>
       </c>
@@ -3171,36 +2771,12 @@
       <c r="E10" s="2">
         <v>256.53864750000002</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>5.1910027000000003</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.1864675</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>338.52818079999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6413.4661875000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1998</v>
       </c>
@@ -3216,36 +2792,12 @@
       <c r="E11" s="2">
         <v>254.57677279999999</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>5.3804530000000002</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3.1164743000000001</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>336.48648300000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6364.41932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1999</v>
       </c>
@@ -3261,36 +2813,12 @@
       <c r="E12" s="2">
         <v>252.21831449999999</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>2.9612440000000002</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>2.5212994000000002</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>333.33398199999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6305.4578624999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2000</v>
       </c>
@@ -3306,36 +2834,12 @@
       <c r="E13" s="2">
         <v>249.80261519999999</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>5.1922519999999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2.5998698999999998</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>332.3534434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6245.06538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2001</v>
       </c>
@@ -3351,36 +2855,12 @@
       <c r="E14" s="2">
         <v>249.53128380000001</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>5.7528249999999996</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2.7012130000000001</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>323.3759589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6238.2820950000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2002</v>
       </c>
@@ -3396,36 +2876,12 @@
       <c r="E15" s="2">
         <v>247.3887512</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>5.6379700000000001</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2.6209663000000001</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>322.5217245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6184.7187800000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2003</v>
       </c>
@@ -3441,36 +2897,12 @@
       <c r="E16" s="2">
         <v>244.76677979999999</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>5.688345</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2.5789493999999999</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>318.52107230000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6119.1694950000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2004</v>
       </c>
@@ -3486,36 +2918,12 @@
       <c r="E17" s="2">
         <v>243.36327879999999</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>5.0173500000000004</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2.4968995</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>322.13517730000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F17" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6084.0819699999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2005</v>
       </c>
@@ -3531,36 +2939,12 @@
       <c r="E18" s="2">
         <v>241.8287393</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>5.0435449999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2.2362962999999998</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>323.75195150000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6045.7184824999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2006</v>
       </c>
@@ -3576,36 +2960,12 @@
       <c r="E19" s="2">
         <v>240.6797718</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>5.6379700000000001</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1.9911418000000001</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>326.20438960000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6016.9942949999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2007</v>
       </c>
@@ -3621,36 +2981,12 @@
       <c r="E20" s="2">
         <v>238.8738061</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>4.3857280999999997</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1.4303273000000001</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>325.92189430000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5971.8451525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2008</v>
       </c>
@@ -3666,36 +3002,12 @@
       <c r="E21" s="2">
         <v>229.61545620000001</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>4.2234400000000001</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1.509471</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>313.5969316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5740.3864050000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2009</v>
       </c>
@@ -3711,36 +3023,12 @@
       <c r="E22" s="2">
         <v>218.6590826</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>4.7715199999999998</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1.4276603000000001</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>299.90997640000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5466.477065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2010</v>
       </c>
@@ -3756,36 +3044,12 @@
       <c r="E23" s="2">
         <v>210.01662970000001</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>4.9421904999999997</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1.4760956000000001</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>289.85902049999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F23" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5250.4157425000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2011</v>
       </c>
@@ -3801,36 +3065,12 @@
       <c r="E24" s="2">
         <v>200.51033860000001</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>5.0618815000000001</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1.5492357999999999</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>280.25508280000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F24" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5012.7584649999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2012</v>
       </c>
@@ -3846,36 +3086,12 @@
       <c r="E25" s="2">
         <v>206.57436419999999</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>4.8341865000000004</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1.3549028999999999</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>291.35017549999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F25" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5164.3591049999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2013</v>
       </c>
@@ -3891,36 +3107,12 @@
       <c r="E26" s="2">
         <v>211.6848541</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>4.2314999999999996</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1.4342113000000001</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>291.94883229999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F26" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5292.1213525000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2014</v>
       </c>
@@ -3936,36 +3128,12 @@
       <c r="E27" s="2">
         <v>202.5623397</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>4.5131969999999999</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1.4055248</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>278.95255100000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F27" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>5064.0584925000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2015</v>
       </c>
@@ -3981,36 +3149,12 @@
       <c r="E28" s="2">
         <v>193.33985010000001</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>4.7783709999999999</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1.5447434</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>270.8206725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F28" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>4833.4962525000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
@@ -4026,36 +3170,12 @@
       <c r="E29" s="2">
         <v>187.2807368</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
-        <v>5.34781</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1.0648981</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>263.58165400000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F29" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>4682.0184200000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1990</v>
       </c>
@@ -4071,18 +3191,12 @@
       <c r="E30" s="2">
         <v>53.351828699999999</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1333.7957174999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1991</v>
       </c>
@@ -4098,18 +3212,12 @@
       <c r="E31" s="2">
         <v>55.414741399999997</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F31" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1385.3685349999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1992</v>
       </c>
@@ -4125,18 +3233,12 @@
       <c r="E32" s="2">
         <v>57.640554999999999</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F32" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1441.0138749999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1993</v>
       </c>
@@ -4152,18 +3254,12 @@
       <c r="E33" s="2">
         <v>60.003419800000003</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F33" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1500.085495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1994</v>
       </c>
@@ -4179,18 +3275,12 @@
       <c r="E34" s="2">
         <v>63.003221099999998</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F34" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1575.0805275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1995</v>
       </c>
@@ -4206,18 +3296,12 @@
       <c r="E35" s="2">
         <v>64.727733999999998</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F35" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1618.19335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1996</v>
       </c>
@@ -4233,18 +3317,12 @@
       <c r="E36" s="2">
         <v>67.576121099999995</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F36" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1689.4030274999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1997</v>
       </c>
@@ -4260,18 +3338,12 @@
       <c r="E37" s="2">
         <v>73.6120631</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F37" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1840.3015774999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1998</v>
       </c>
@@ -4287,18 +3359,12 @@
       <c r="E38" s="2">
         <v>73.412782899999996</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F38" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1835.3195724999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1999</v>
       </c>
@@ -4314,18 +3380,12 @@
       <c r="E39" s="2">
         <v>75.633124100000003</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F39" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1890.8281025000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2000</v>
       </c>
@@ -4341,18 +3401,12 @@
       <c r="E40" s="2">
         <v>74.7587063</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F40" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1868.9676575000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2001</v>
       </c>
@@ -4368,18 +3422,12 @@
       <c r="E41" s="2">
         <v>65.390637100000006</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F41" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1634.7659275000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2002</v>
       </c>
@@ -4395,18 +3443,12 @@
       <c r="E42" s="2">
         <v>66.874037000000001</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F42" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1671.850925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2003</v>
       </c>
@@ -4422,18 +3464,12 @@
       <c r="E43" s="2">
         <v>65.486998099999994</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F43" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1637.1749524999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2004</v>
       </c>
@@ -4449,18 +3485,12 @@
       <c r="E44" s="2">
         <v>71.257649000000001</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F44" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1781.441225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2005</v>
       </c>
@@ -4476,18 +3506,12 @@
       <c r="E45" s="2">
         <v>74.643370899999994</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F45" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1866.0842724999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2006</v>
       </c>
@@ -4503,18 +3527,12 @@
       <c r="E46" s="2">
         <v>77.895505999999997</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F46" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1947.3876499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2007</v>
       </c>
@@ -4530,18 +3548,12 @@
       <c r="E47" s="2">
         <v>81.232032799999999</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F47" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>2030.8008199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2008</v>
       </c>
@@ -4557,18 +3569,12 @@
       <c r="E48" s="2">
         <v>78.248564400000006</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F48" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1956.2141100000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2009</v>
       </c>
@@ -4584,18 +3590,12 @@
       <c r="E49" s="2">
         <v>75.051713500000005</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F49" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1876.2928375000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2010</v>
       </c>
@@ -4611,18 +3611,12 @@
       <c r="E50" s="2">
         <v>73.424104700000001</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F50" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1835.6026175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2011</v>
       </c>
@@ -4638,18 +3632,12 @@
       <c r="E51" s="2">
         <v>73.133626899999996</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F51" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1828.3406725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2012</v>
       </c>
@@ -4665,18 +3653,12 @@
       <c r="E52" s="2">
         <v>78.586721900000001</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F52" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1964.6680475000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2013</v>
       </c>
@@ -4692,18 +3674,12 @@
       <c r="E53" s="2">
         <v>74.598266899999999</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F53" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1864.9566725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2014</v>
       </c>
@@ -4719,18 +3695,12 @@
       <c r="E54" s="2">
         <v>70.471489500000004</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F54" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1761.7872375000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2015</v>
       </c>
@@ -4746,18 +3716,12 @@
       <c r="E55" s="2">
         <v>71.157708</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F55" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1778.9427000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2016</v>
       </c>
@@ -4773,20 +3737,5117 @@
       <c r="E56" s="2">
         <v>69.888209099999997</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="F56" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>1747.2052274999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6.5668850000000001</v>
+      </c>
+      <c r="F57" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>164.17212499999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5.9946250000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>149.86562499999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6.3996399999999998</v>
+      </c>
+      <c r="F59" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>159.99099999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5.8596199999999996</v>
+      </c>
+      <c r="F60" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>146.4905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="2">
+        <v>6.11754</v>
+      </c>
+      <c r="F61" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>152.9385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6.8368950000000002</v>
+      </c>
+      <c r="F62" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>170.92237500000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6.4540449999999998</v>
+      </c>
+      <c r="F63" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>161.351125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5.1910027000000003</v>
+      </c>
+      <c r="F64" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>129.77506750000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="2">
+        <v>5.3804530000000002</v>
+      </c>
+      <c r="F65" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>134.511325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2.9612440000000002</v>
+      </c>
+      <c r="F66" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>74.031100000000009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="2">
+        <v>5.1922519999999999</v>
+      </c>
+      <c r="F67" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>129.80629999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2">
+        <v>5.7528249999999996</v>
+      </c>
+      <c r="F68" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>143.82062499999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2">
+        <v>5.6379700000000001</v>
+      </c>
+      <c r="F69" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>140.94925000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2">
+        <v>5.688345</v>
+      </c>
+      <c r="F70" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>142.20862500000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5.0173500000000004</v>
+      </c>
+      <c r="F71" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>125.43375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5.0435449999999999</v>
+      </c>
+      <c r="F72" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>126.08862499999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2">
+        <v>5.6379700000000001</v>
+      </c>
+      <c r="F73" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>140.94925000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2">
+        <v>4.3857280999999997</v>
+      </c>
+      <c r="F74" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>109.64320249999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4.2234400000000001</v>
+      </c>
+      <c r="F75" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>105.586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4.7715199999999998</v>
+      </c>
+      <c r="F76" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>119.288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2">
+        <v>4.9421904999999997</v>
+      </c>
+      <c r="F77" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>123.5547625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="2">
+        <v>5.0618815000000001</v>
+      </c>
+      <c r="F78" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>126.5470375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2">
+        <v>4.8341865000000004</v>
+      </c>
+      <c r="F79" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>120.8546625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4.2314999999999996</v>
+      </c>
+      <c r="F80" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>105.78749999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2">
+        <v>4.5131969999999999</v>
+      </c>
+      <c r="F81" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>112.829925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2">
+        <v>4.7783709999999999</v>
+      </c>
+      <c r="F82" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>119.45927499999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5.34781</v>
+      </c>
+      <c r="F83" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>133.69524999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+      <c r="F120" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+      <c r="F122" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+      <c r="F126" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+      <c r="F127" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+      <c r="F128" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+      <c r="F129" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+      <c r="F130" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+      <c r="F134" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+      <c r="F136" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+      <c r="F137" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4.5488267999999996</v>
+      </c>
+      <c r="F138" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>113.72066999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="2">
+        <v>4.2799117999999998</v>
+      </c>
+      <c r="F139" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>106.997795</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="2">
+        <v>4.0877534000000004</v>
+      </c>
+      <c r="F140" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>102.19383500000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3.7077198</v>
+      </c>
+      <c r="F141" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>92.692994999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="2">
+        <v>3.4327120999999998</v>
+      </c>
+      <c r="F142" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>85.817802499999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="2">
+        <v>3.3736386999999999</v>
+      </c>
+      <c r="F143" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>84.340967499999991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="2">
+        <v>3.0817393000000002</v>
+      </c>
+      <c r="F144" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>77.04348250000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="2">
+        <v>3.1864675</v>
+      </c>
+      <c r="F145" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>79.661687499999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="2">
+        <v>3.1164743000000001</v>
+      </c>
+      <c r="F146" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>77.911857499999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2.5212994000000002</v>
+      </c>
+      <c r="F147" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>63.032485000000008</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2.5998698999999998</v>
+      </c>
+      <c r="F148" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>64.996747499999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" s="2">
+        <v>2.7012130000000001</v>
+      </c>
+      <c r="F149" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>67.530325000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="2">
+        <v>2.6209663000000001</v>
+      </c>
+      <c r="F150" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>65.524157500000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="2">
+        <v>2.5789493999999999</v>
+      </c>
+      <c r="F151" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>64.473735000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2.4968995</v>
+      </c>
+      <c r="F152" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>62.422487500000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="2">
+        <v>2.2362962999999998</v>
+      </c>
+      <c r="F153" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>55.907407499999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1.9911418000000001</v>
+      </c>
+      <c r="F154" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>49.778545000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1.4303273000000001</v>
+      </c>
+      <c r="F155" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>35.758182500000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1.509471</v>
+      </c>
+      <c r="F156" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>37.736775000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1.4276603000000001</v>
+      </c>
+      <c r="F157" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>35.6915075</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1.4760956000000001</v>
+      </c>
+      <c r="F158" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>36.902390000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1.5492357999999999</v>
+      </c>
+      <c r="F159" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>38.730894999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1.3549028999999999</v>
+      </c>
+      <c r="F160" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>33.872572499999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1.4342113000000001</v>
+      </c>
+      <c r="F161" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>35.855282500000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1.4055248</v>
+      </c>
+      <c r="F162" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>35.138120000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1.5447434</v>
+      </c>
+      <c r="F163" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>38.618585000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1.0648981</v>
+      </c>
+      <c r="F164" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>26.622452499999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0</v>
+      </c>
+      <c r="F165" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0</v>
+      </c>
+      <c r="F166" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0</v>
+      </c>
+      <c r="F167" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0</v>
+      </c>
+      <c r="F169" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0</v>
+      </c>
+      <c r="F170" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0</v>
+      </c>
+      <c r="F171" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="2">
+        <v>0</v>
+      </c>
+      <c r="F173" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="2">
+        <v>0</v>
+      </c>
+      <c r="F174" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="2">
+        <v>0</v>
+      </c>
+      <c r="F175" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="2">
+        <v>0</v>
+      </c>
+      <c r="F176" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="2">
+        <v>0</v>
+      </c>
+      <c r="F177" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="2">
+        <v>0</v>
+      </c>
+      <c r="F178" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" s="2">
+        <v>0</v>
+      </c>
+      <c r="F179" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" s="2">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0</v>
+      </c>
+      <c r="F181" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="2">
+        <v>0</v>
+      </c>
+      <c r="F182" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F183" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="2">
+        <v>0</v>
+      </c>
+      <c r="F184" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0</v>
+      </c>
+      <c r="F185" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="2">
+        <v>0</v>
+      </c>
+      <c r="F186" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="2">
+        <v>0</v>
+      </c>
+      <c r="F187" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0</v>
+      </c>
+      <c r="F188" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="2">
+        <v>0</v>
+      </c>
+      <c r="F189" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="2">
+        <v>0</v>
+      </c>
+      <c r="F190" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="2">
+        <v>0</v>
+      </c>
+      <c r="F191" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="2">
+        <v>0</v>
+      </c>
+      <c r="F192" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="2">
+        <v>0</v>
+      </c>
+      <c r="F193" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="2">
+        <v>0</v>
+      </c>
+      <c r="F194" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195" s="2">
+        <v>0</v>
+      </c>
+      <c r="F195" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" s="2">
+        <v>0</v>
+      </c>
+      <c r="F196" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="2">
+        <v>0</v>
+      </c>
+      <c r="F197" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" s="2">
+        <v>0</v>
+      </c>
+      <c r="F198" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" s="2">
+        <v>0</v>
+      </c>
+      <c r="F199" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" s="2">
+        <v>0</v>
+      </c>
+      <c r="F200" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0</v>
+      </c>
+      <c r="F201" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202" s="2">
+        <v>0</v>
+      </c>
+      <c r="F202" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="2">
+        <v>0</v>
+      </c>
+      <c r="F203" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204" s="2">
+        <v>0</v>
+      </c>
+      <c r="F204" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0</v>
+      </c>
+      <c r="F205" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0</v>
+      </c>
+      <c r="F206" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0</v>
+      </c>
+      <c r="F207" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0</v>
+      </c>
+      <c r="F208" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0</v>
+      </c>
+      <c r="F209" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" s="2">
+        <v>0</v>
+      </c>
+      <c r="F210" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" s="2">
+        <v>0</v>
+      </c>
+      <c r="F211" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212" s="2">
+        <v>0</v>
+      </c>
+      <c r="F212" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" s="2">
+        <v>0</v>
+      </c>
+      <c r="F213" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0</v>
+      </c>
+      <c r="F214" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" s="2">
+        <v>0</v>
+      </c>
+      <c r="F215" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" s="2">
+        <v>0</v>
+      </c>
+      <c r="F216" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="2">
+        <v>0</v>
+      </c>
+      <c r="F217" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" s="2">
+        <v>0</v>
+      </c>
+      <c r="F218" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0</v>
+      </c>
+      <c r="F219" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" s="2">
+        <v>0</v>
+      </c>
+      <c r="F220" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" s="2">
+        <v>0</v>
+      </c>
+      <c r="F221" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" s="2">
+        <v>0</v>
+      </c>
+      <c r="F222" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="2">
+        <v>0</v>
+      </c>
+      <c r="F223" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="2">
+        <v>0</v>
+      </c>
+      <c r="F224" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0</v>
+      </c>
+      <c r="F225" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="2">
+        <v>0</v>
+      </c>
+      <c r="F226" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="2">
+        <v>0</v>
+      </c>
+      <c r="F227" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0</v>
+      </c>
+      <c r="F228" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" s="2">
+        <v>0</v>
+      </c>
+      <c r="F229" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0</v>
+      </c>
+      <c r="F230" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0</v>
+      </c>
+      <c r="F231" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0</v>
+      </c>
+      <c r="F232" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" s="2">
+        <v>0</v>
+      </c>
+      <c r="F233" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0</v>
+      </c>
+      <c r="F234" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" s="2">
+        <v>0</v>
+      </c>
+      <c r="F235" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="2">
+        <v>0</v>
+      </c>
+      <c r="F236" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E237" s="2">
+        <v>0</v>
+      </c>
+      <c r="F237" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" s="2">
+        <v>0</v>
+      </c>
+      <c r="F238" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" s="2">
+        <v>0</v>
+      </c>
+      <c r="F239" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="2">
+        <v>0</v>
+      </c>
+      <c r="F240" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" s="2">
+        <v>0</v>
+      </c>
+      <c r="F241" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="2">
+        <v>0</v>
+      </c>
+      <c r="F242" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243" s="2">
+        <v>0</v>
+      </c>
+      <c r="F243" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" s="2">
+        <v>0</v>
+      </c>
+      <c r="F244" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245" s="2">
+        <v>0</v>
+      </c>
+      <c r="F245" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E246" s="2">
+        <v>0</v>
+      </c>
+      <c r="F246" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E247" s="2">
+        <v>0</v>
+      </c>
+      <c r="F247" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E248" s="2">
+        <v>0</v>
+      </c>
+      <c r="F248" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0</v>
+      </c>
+      <c r="F249" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E250" s="2">
+        <v>0</v>
+      </c>
+      <c r="F250" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0</v>
+      </c>
+      <c r="F251" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E252" s="2">
+        <v>0</v>
+      </c>
+      <c r="F252" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E253" s="2">
+        <v>0</v>
+      </c>
+      <c r="F253" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" s="2">
+        <v>0</v>
+      </c>
+      <c r="F254" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0</v>
+      </c>
+      <c r="F255" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E256" s="2">
+        <v>0</v>
+      </c>
+      <c r="F256" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0</v>
+      </c>
+      <c r="F257" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" s="2">
+        <v>0</v>
+      </c>
+      <c r="F258" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" s="2">
+        <v>0</v>
+      </c>
+      <c r="F259" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E260" s="2">
+        <v>0</v>
+      </c>
+      <c r="F260" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E261" s="2">
+        <v>0</v>
+      </c>
+      <c r="F261" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0</v>
+      </c>
+      <c r="F262" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" s="2">
+        <v>0</v>
+      </c>
+      <c r="F263" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0</v>
+      </c>
+      <c r="F264" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E265" s="2">
+        <v>0</v>
+      </c>
+      <c r="F265" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0</v>
+      </c>
+      <c r="F266" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E267" s="2">
+        <v>0</v>
+      </c>
+      <c r="F267" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0</v>
+      </c>
+      <c r="F268" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0</v>
+      </c>
+      <c r="F269" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0</v>
+      </c>
+      <c r="F270" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E271" s="2">
+        <v>0</v>
+      </c>
+      <c r="F271" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272" s="2">
+        <v>0</v>
+      </c>
+      <c r="F272" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E273" s="2">
+        <v>284.0171398</v>
+      </c>
+      <c r="F273" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7100.4284950000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E274" s="2">
+        <v>287.11943689999998</v>
+      </c>
+      <c r="F274" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7177.9859225</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E275" s="2">
+        <v>295.02486900000002</v>
+      </c>
+      <c r="F275" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7375.6217250000009</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E276" s="2">
+        <v>304.34894750000001</v>
+      </c>
+      <c r="F276" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7608.7236874999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E277" s="2">
+        <v>314.7679852</v>
+      </c>
+      <c r="F277" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7869.1996300000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E278" s="2">
+        <v>320.5560792</v>
+      </c>
+      <c r="F278" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8013.9019799999996</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E279" s="2">
+        <v>322.893237</v>
+      </c>
+      <c r="F279" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8072.3309250000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E280" s="2">
+        <v>338.52818079999997</v>
+      </c>
+      <c r="F280" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8463.2045199999993</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E281" s="2">
+        <v>336.48648300000002</v>
+      </c>
+      <c r="F281" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8412.1620750000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E282" s="2">
+        <v>333.33398199999999</v>
+      </c>
+      <c r="F282" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8333.349549999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" s="2">
+        <v>332.3534434</v>
+      </c>
+      <c r="F283" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8308.8360850000008</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" s="2">
+        <v>323.3759589</v>
+      </c>
+      <c r="F284" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8084.3989725000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E285" s="2">
+        <v>322.5217245</v>
+      </c>
+      <c r="F285" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8063.0431125000005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E286" s="2">
+        <v>318.52107230000001</v>
+      </c>
+      <c r="F286" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7963.0268075000004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E287" s="2">
+        <v>322.13517730000001</v>
+      </c>
+      <c r="F287" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8053.3794324999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E288" s="2">
+        <v>323.75195150000002</v>
+      </c>
+      <c r="F288" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8093.7987875000008</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E289" s="2">
+        <v>326.20438960000001</v>
+      </c>
+      <c r="F289" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8155.1097399999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290" s="2">
+        <v>325.92189430000002</v>
+      </c>
+      <c r="F290" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>8148.0473575000005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E291" s="2">
+        <v>313.5969316</v>
+      </c>
+      <c r="F291" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7839.9232899999997</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E292" s="2">
+        <v>299.90997640000001</v>
+      </c>
+      <c r="F292" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7497.7494100000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" s="2">
+        <v>289.85902049999999</v>
+      </c>
+      <c r="F293" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7246.4755124999992</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E294" s="2">
+        <v>280.25508280000003</v>
+      </c>
+      <c r="F294" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7006.3770700000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E295" s="2">
+        <v>291.35017549999998</v>
+      </c>
+      <c r="F295" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7283.7543874999992</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E296" s="2">
+        <v>291.94883229999999</v>
+      </c>
+      <c r="F296" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>7298.7208074999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E297" s="2">
+        <v>278.95255100000003</v>
+      </c>
+      <c r="F297" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6973.8137750000005</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E298" s="2">
+        <v>270.8206725</v>
+      </c>
+      <c r="F298" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6770.5168125</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E299" s="2">
+        <v>263.58165400000001</v>
+      </c>
+      <c r="F299" s="2">
+        <f>CH4_Agricultura_Chile3[[#This Row],[Emisiones (kton CH4)]]*25</f>
+        <v>6589.5413500000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
